--- a/medicine/Pharmacie/2,5-Diméthoxy-4-bromoamphétamine/2,5-Diméthoxy-4-bromoamphétamine.xlsx
+++ b/medicine/Pharmacie/2,5-Diméthoxy-4-bromoamphétamine/2,5-Diméthoxy-4-bromoamphétamine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2,5-Dim%C3%A9thoxy-4-bromoamph%C3%A9tamine</t>
+          <t>2,5-Diméthoxy-4-bromoamphétamine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La DOB ou 2,5-diméthoxy-4-bromoamphétamine est  une substance psychotrope hallucinogène et stimulante. On lui prête parfois un caractère enthéogène.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2,5-Dim%C3%A9thoxy-4-bromoamph%C3%A9tamine</t>
+          <t>2,5-Diméthoxy-4-bromoamphétamine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La DOB a été synthétisée la première fois par Alexander Shulgin en 1967.
 Du fait de son caractère stupéfiant, c'est un produit réglementé par la convention sur les substances psychotropes de 1971.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2,5-Dim%C3%A9thoxy-4-bromoamph%C3%A9tamine</t>
+          <t>2,5-Diméthoxy-4-bromoamphétamine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette substance appartient à la famille des phényléthylamines et celle des amphétamines.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2,5-Dim%C3%A9thoxy-4-bromoamph%C3%A9tamine</t>
+          <t>2,5-Diméthoxy-4-bromoamphétamine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,12 +593,15 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Effets et conséquences
-Elle aurait les mêmes effets que la 2-CB sur une durée plus longue (18 à 30 heures)[2].
-Les effets ne se font sentir qu'après trois heures de latence où l'usager pourrait être tenté de prendre un autre produit et risque de se surdoser[2].
+          <t>Effets et conséquences</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle aurait les mêmes effets que la 2-CB sur une durée plus longue (18 à 30 heures).
+Les effets ne se font sentir qu'après trois heures de latence où l'usager pourrait être tenté de prendre un autre produit et risque de se surdoser.
 Sa toxicité est mal connue, mais de fortes doses semblent poser de graves problèmes de vasoconstriction aux extrémités des membres.
-Réalité de terrain
-Sa présence sur le marché clandestin reste marginale et elle y est souvent vendue pour un autre produit (pour du MDMA en comprimé ou pour du LSD sur un buvard)[2].
 </t>
         </is>
       </c>
@@ -593,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2,5-Dim%C3%A9thoxy-4-bromoamph%C3%A9tamine</t>
+          <t>2,5-Diméthoxy-4-bromoamphétamine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,10 +627,49 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Usage récréatif et détourné</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Réalité de terrain</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa présence sur le marché clandestin reste marginale et elle y est souvent vendue pour un autre produit (pour du MDMA en comprimé ou pour du LSD sur un buvard).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2,5-Diméthoxy-4-bromoamphétamine</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/2,5-Dim%C3%A9thoxy-4-bromoamph%C3%A9tamine</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Molécule voisine</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est relativement proche d'un autre psychotrope hallucinogène : le STP ou DOM.
 </t>
